--- a/BancoDeDados/Modelagens/Gufi-Fisico.xlsx
+++ b/BancoDeDados/Modelagens/Gufi-Fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\RepositórioGufi_GBS\BancoDeDados\Modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Gufi_Projeto\BancoDeDados\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB255F70-27F9-49DE-9AED-BE9CE1A1C270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7C543-4F03-4CFE-B493-95F6C71C99C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{9FCDCA45-AEE7-4F71-95E9-0CE974E8BF88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>odirlei@gmail.com</t>
+  </si>
+  <si>
+    <t>Recusada</t>
   </si>
 </sst>
 </file>
@@ -280,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,9 +291,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -301,7 +302,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -709,7 +712,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,10 +727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -754,13 +757,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -859,7 +862,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
@@ -939,7 +942,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E28" s="10"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
@@ -1028,10 +1031,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -1040,7 +1043,7 @@
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -1063,16 +1066,16 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
